--- a/data/processed/customer_credit_data_features.xlsx
+++ b/data/processed/customer_credit_data_features.xlsx
@@ -1,37 +1,132 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Creadit\data\processed\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC0B6B2-5974-4A34-87F8-3B295684AD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>main_salary</t>
+  </si>
+  <si>
+    <t>passive_salary</t>
+  </si>
+  <si>
+    <t>credit_score</t>
+  </si>
+  <si>
+    <t>loan_amount</t>
+  </si>
+  <si>
+    <t>debt_to_income</t>
+  </si>
+  <si>
+    <t>repayment_period</t>
+  </si>
+  <si>
+    <t>bank_rate</t>
+  </si>
+  <si>
+    <t>total_income</t>
+  </si>
+  <si>
+    <t>emi</t>
+  </si>
+  <si>
+    <t>dti</t>
+  </si>
+  <si>
+    <t>loan_to_income</t>
+  </si>
+  <si>
+    <t>risk_level</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Artist</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Lawyer</t>
+  </si>
+  <si>
+    <t>Chef</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +141,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,154 +465,530 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>customer_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>income</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>credit_score</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>loan_amount</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>debt_to_income</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>risk_level</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>25</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
         <v>50000</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2">
+        <v>5000</v>
+      </c>
+      <c r="F2">
         <v>700</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2">
         <v>10000</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="H2">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>55000</v>
+      </c>
+      <c r="L2">
+        <v>865.26746098137812</v>
+      </c>
+      <c r="M2">
+        <v>1.5732135654206869</v>
+      </c>
+      <c r="N2">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>40</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
         <v>80000</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3">
+        <v>2000</v>
+      </c>
+      <c r="F3">
         <v>650</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3">
         <v>20000</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="H3">
+        <v>0.24390243902439021</v>
+      </c>
+      <c r="I3">
+        <v>24</v>
+      </c>
+      <c r="J3">
+        <v>6.5</v>
+      </c>
+      <c r="K3">
+        <v>82000</v>
+      </c>
+      <c r="L3">
+        <v>890.9250286702262</v>
+      </c>
+      <c r="M3">
+        <v>1.0864939374027149</v>
+      </c>
+      <c r="N3">
+        <v>0.24390243902439021</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>35</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
         <v>60000</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4">
+        <v>3000</v>
+      </c>
+      <c r="F4">
         <v>720</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4">
         <v>15000</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="H4">
+        <v>0.23809523809523811</v>
+      </c>
+      <c r="I4">
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <v>7.5</v>
+      </c>
+      <c r="K4">
+        <v>63000</v>
+      </c>
+      <c r="L4">
+        <v>883.68578321493942</v>
+      </c>
+      <c r="M4">
+        <v>1.4026758463729201</v>
+      </c>
+      <c r="N4">
+        <v>0.23809523809523811</v>
+      </c>
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>50</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
         <v>90000</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
         <v>600</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5">
         <v>25000</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
+      <c r="H5">
+        <v>0.27472527472527469</v>
+      </c>
+      <c r="I5">
+        <v>36</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>91000</v>
+      </c>
+      <c r="L5">
+        <v>783.40913653577809</v>
+      </c>
+      <c r="M5">
+        <v>0.86088916102832758</v>
+      </c>
+      <c r="N5">
+        <v>0.27472527472527469</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>55000</v>
+      </c>
+      <c r="E6">
+        <v>4000</v>
+      </c>
+      <c r="F6">
+        <v>750</v>
+      </c>
+      <c r="G6">
+        <v>30000</v>
+      </c>
+      <c r="H6">
+        <v>0.50847457627118642</v>
+      </c>
+      <c r="I6">
+        <v>24</v>
+      </c>
+      <c r="J6">
+        <v>6.2</v>
+      </c>
+      <c r="K6">
+        <v>59000</v>
+      </c>
+      <c r="L6">
+        <v>1332.32352923643</v>
+      </c>
+      <c r="M6">
+        <v>2.2581754732820851</v>
+      </c>
+      <c r="N6">
+        <v>0.50847457627118642</v>
+      </c>
+      <c r="O6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>65000</v>
+      </c>
+      <c r="E7">
+        <v>5000</v>
+      </c>
+      <c r="F7">
+        <v>680</v>
+      </c>
+      <c r="G7">
+        <v>22000</v>
+      </c>
+      <c r="H7">
+        <v>0.31428571428571428</v>
+      </c>
+      <c r="I7">
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>70000</v>
+      </c>
+      <c r="L7">
+        <v>801.50195947600355</v>
+      </c>
+      <c r="M7">
+        <v>1.145002799251434</v>
+      </c>
+      <c r="N7">
+        <v>0.31428571428571428</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>70000</v>
+      </c>
+      <c r="E8">
+        <v>4500</v>
+      </c>
+      <c r="F8">
+        <v>710</v>
+      </c>
+      <c r="G8">
+        <v>18000</v>
+      </c>
+      <c r="H8">
+        <v>0.2416107382550336</v>
+      </c>
+      <c r="I8">
+        <v>24</v>
+      </c>
+      <c r="J8">
+        <v>6.8</v>
+      </c>
+      <c r="K8">
+        <v>74500</v>
+      </c>
+      <c r="L8">
+        <v>804.275382516881</v>
+      </c>
+      <c r="M8">
+        <v>1.07956427183474</v>
+      </c>
+      <c r="N8">
+        <v>0.2416107382550336</v>
+      </c>
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>95000</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+      <c r="F9">
+        <v>640</v>
+      </c>
+      <c r="G9">
+        <v>20000</v>
+      </c>
+      <c r="H9">
+        <v>0.2061855670103093</v>
+      </c>
+      <c r="I9">
+        <v>36</v>
+      </c>
+      <c r="J9">
+        <v>7.2</v>
+      </c>
+      <c r="K9">
+        <v>97000</v>
+      </c>
+      <c r="L9">
+        <v>619.37244357193242</v>
+      </c>
+      <c r="M9">
+        <v>0.63852829234219843</v>
+      </c>
+      <c r="N9">
+        <v>0.2061855670103093</v>
+      </c>
+      <c r="O9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>70000</v>
+      </c>
+      <c r="E10">
+        <v>6000</v>
+      </c>
+      <c r="F10">
+        <v>650</v>
+      </c>
+      <c r="G10">
+        <v>35000</v>
+      </c>
+      <c r="H10">
+        <v>0.46052631578947367</v>
+      </c>
+      <c r="I10">
+        <v>36</v>
+      </c>
+      <c r="J10">
+        <v>6.5</v>
+      </c>
+      <c r="K10">
+        <v>76000</v>
+      </c>
+      <c r="L10">
+        <v>1072.7151006778499</v>
+      </c>
+      <c r="M10">
+        <v>1.4114672377340129</v>
+      </c>
+      <c r="N10">
+        <v>0.46052631578947367</v>
+      </c>
+      <c r="O10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>120000</v>
+      </c>
+      <c r="E11">
+        <v>7000</v>
+      </c>
+      <c r="F11">
+        <v>720</v>
+      </c>
+      <c r="G11">
+        <v>50000</v>
+      </c>
+      <c r="H11">
+        <v>0.39370078740157483</v>
+      </c>
+      <c r="I11">
+        <v>48</v>
+      </c>
+      <c r="J11">
+        <v>7.5</v>
+      </c>
+      <c r="K11">
+        <v>127000</v>
+      </c>
+      <c r="L11">
+        <v>1208.9450968865469</v>
+      </c>
+      <c r="M11">
+        <v>0.9519252731390131</v>
+      </c>
+      <c r="N11">
+        <v>0.39370078740157483</v>
+      </c>
+      <c r="O11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
